--- a/data/trans_orig/P2405-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2405-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADFA748A-0ABB-4563-9A7A-A61C74A10876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C0D5091-39AD-4797-BB49-A876F5F72DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D47D2F2-CD8B-4568-8A6E-D9E7677360C2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E698FF7-ED56-41AE-9B7D-8E377572814A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="285">
   <si>
     <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2007 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,83%</t>
+    <t>7,61%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>4,77%</t>
+    <t>4,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -100,7 +100,7 @@
     <t>97,92%</t>
   </si>
   <si>
-    <t>92,17%</t>
+    <t>92,39%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,7 +115,7 @@
     <t>98,73%</t>
   </si>
   <si>
-    <t>95,23%</t>
+    <t>95,9%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -124,7 +124,7 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>3,1%</t>
   </si>
   <si>
     <t>1,62%</t>
@@ -133,13 +133,13 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,57%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>97,29%</t>
+    <t>96,9%</t>
   </si>
   <si>
     <t>98,38%</t>
@@ -148,7 +148,7 @@
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,43%</t>
+    <t>98,3%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -178,673 +178,697 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>4,33%</t>
+    <t>4,7%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>9,43%</t>
+    <t>9,87%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2015 (Tasa respuesta: 45,97%)</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>98,09%</t>
   </si>
   <si>
     <t>99,31%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2015 (Tasa respuesta: 45,97%)</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -853,19 +877,19 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>99,16%</t>
+    <t>99,26%</t>
   </si>
   <si>
     <t>99,86%</t>
@@ -1280,7 +1304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC9A6EF-2DBE-425E-99F0-18FE0A78EF37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21ECB2C-5404-443D-9E5E-C59788AED909}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1917,7 +1941,7 @@
         <v>168</v>
       </c>
       <c r="D14" s="7">
-        <v>168497</v>
+        <v>168498</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>52</v>
@@ -1968,7 +1992,7 @@
         <v>170</v>
       </c>
       <c r="D15" s="7">
-        <v>170487</v>
+        <v>170488</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -2334,13 +2358,13 @@
         <v>1683</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2355,7 +2379,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2364,13 +2388,13 @@
         <v>1683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,10 +2409,10 @@
         <v>233293</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>21</v>
@@ -2403,7 +2427,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>23</v>
@@ -2415,10 +2439,10 @@
         <v>394646</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>21</v>
@@ -2477,7 +2501,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2489,13 +2513,13 @@
         <v>3819</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2504,13 +2528,13 @@
         <v>1982</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2519,13 +2543,13 @@
         <v>5801</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2564,13 @@
         <v>313659</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>177</v>
@@ -2555,10 +2579,10 @@
         <v>184386</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>21</v>
@@ -2570,13 +2594,13 @@
         <v>498044</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,13 +2668,13 @@
         <v>14683</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -2662,10 +2686,10 @@
         <v>109</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -2674,10 +2698,10 @@
         <v>19706</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>114</v>
@@ -2695,7 +2719,7 @@
         <v>1370598</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>115</v>
@@ -2710,13 +2734,13 @@
         <v>858307</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>2177</v>
@@ -2725,13 +2749,13 @@
         <v>2228906</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,7 +2811,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2811,7 +2835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F616B119-3804-4B26-A217-003F938EA8C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A696D9-AA1B-440A-9E6F-7C02946B3155}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2828,7 +2852,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2933,39 +2957,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,39 +3002,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,39 +3047,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3096,13 @@
         <v>1928</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3087,13 +3111,13 @@
         <v>1005</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3102,13 +3126,13 @@
         <v>2933</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,10 +3147,10 @@
         <v>206177</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3138,7 +3162,7 @@
         <v>150213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>134</v>
@@ -3382,13 +3406,13 @@
         <v>15560</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3397,13 +3421,13 @@
         <v>1881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3412,13 +3436,13 @@
         <v>17440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3457,13 @@
         <v>251906</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -3448,10 +3472,10 @@
         <v>197894</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3463,13 +3487,13 @@
         <v>449801</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3561,13 @@
         <v>940</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3567,13 +3591,13 @@
         <v>940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,10 +3612,10 @@
         <v>90459</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -3618,10 +3642,10 @@
         <v>155899</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -3698,7 +3722,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3728,7 +3752,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3770,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>23</v>
@@ -3776,7 +3800,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>23</v>
@@ -3847,13 +3871,13 @@
         <v>5538</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3868,7 +3892,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3880,10 +3904,10 @@
         <v>45</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3922,13 @@
         <v>274656</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>177</v>
@@ -3916,7 +3940,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>23</v>
@@ -3931,10 +3955,10 @@
         <v>52</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,7 +4014,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4002,13 +4026,13 @@
         <v>6061</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4023,7 +4047,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4032,13 +4056,13 @@
         <v>6061</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4077,13 @@
         <v>290093</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H26" s="7">
         <v>190</v>
@@ -4071,7 +4095,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>23</v>
@@ -4083,13 +4107,13 @@
         <v>498929</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4181,13 @@
         <v>30027</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -4172,13 +4196,13 @@
         <v>3872</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -4187,13 +4211,13 @@
         <v>33898</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4232,13 @@
         <v>1324069</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>891</v>
@@ -4223,13 +4247,13 @@
         <v>969317</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>2131</v>
@@ -4238,13 +4262,13 @@
         <v>2293386</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4324,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4324,7 +4348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B115F8B1-892A-4B2C-9C87-F5BD2AF22374}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35221713-A924-4F89-9301-CA0ED8249CFF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4341,7 +4365,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4469,7 +4493,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4484,7 +4508,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,7 +4541,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4526,13 +4550,13 @@
         <v>295</v>
       </c>
       <c r="N5" s="7">
-        <v>313678</v>
+        <v>313677</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -4577,7 +4601,7 @@
         <v>295</v>
       </c>
       <c r="N6" s="7">
-        <v>313678</v>
+        <v>313677</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -4603,13 +4627,13 @@
         <v>9635</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4618,13 +4642,13 @@
         <v>1969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -4633,13 +4657,13 @@
         <v>11604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4678,13 @@
         <v>284274</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
         <v>168</v>
@@ -4669,10 +4693,10 @@
         <v>176928</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4684,13 +4708,13 @@
         <v>461202</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4782,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4779,7 +4803,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4788,13 +4812,13 @@
         <v>865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,10 +4833,10 @@
         <v>164563</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -4827,7 +4851,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -4839,10 +4863,10 @@
         <v>276387</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -4913,13 +4937,13 @@
         <v>932</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4928,13 +4952,13 @@
         <v>881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4949,7 +4973,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,10 +4988,10 @@
         <v>237146</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -4979,10 +5003,10 @@
         <v>158582</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -4997,7 +5021,7 @@
         <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -5074,7 +5098,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5089,7 +5113,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5104,7 +5128,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,7 +5146,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -5137,7 +5161,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>23</v>
@@ -5152,7 +5176,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>23</v>
@@ -5223,13 +5247,13 @@
         <v>2916</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5238,13 +5262,13 @@
         <v>873</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5253,13 +5277,13 @@
         <v>3789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5298,13 @@
         <v>135666</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>86</v>
@@ -5289,10 +5313,10 @@
         <v>88064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -5304,13 +5328,13 @@
         <v>223730</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5402,13 @@
         <v>7560</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>253</v>
+        <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5393,13 +5417,13 @@
         <v>1006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -5408,13 +5432,13 @@
         <v>8566</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5453,13 @@
         <v>317969</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>107</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="H23" s="7">
         <v>245</v>
@@ -5444,10 +5468,10 @@
         <v>257012</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>21</v>
@@ -5459,13 +5483,13 @@
         <v>574981</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,7 +5545,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5533,13 +5557,13 @@
         <v>2145</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5554,7 +5578,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5563,13 +5587,13 @@
         <v>2145</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,10 +5608,10 @@
         <v>390933</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>21</v>
@@ -5602,7 +5626,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>274</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>23</v>
@@ -5614,10 +5638,10 @@
         <v>691762</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>21</v>
@@ -5688,13 +5712,13 @@
         <v>24052</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>112</v>
+        <v>275</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -5703,13 +5727,13 @@
         <v>4729</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -5718,13 +5742,13 @@
         <v>28781</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5763,13 @@
         <v>1845636</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c r="H29" s="7">
         <v>1249</v>
@@ -5754,13 +5778,13 @@
         <v>1300101</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M29" s="7">
         <v>2992</v>
@@ -5769,13 +5793,13 @@
         <v>3145737</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,7 +5855,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2405-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2405-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C0D5091-39AD-4797-BB49-A876F5F72DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E66D792B-037B-45A2-8A73-518097F259EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E698FF7-ED56-41AE-9B7D-8E377572814A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27F66FC2-1336-451C-B653-67C572D8C59F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="289">
   <si>
     <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2007 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -79,7 +79,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,61%</t>
+    <t>7,17%</t>
   </si>
   <si>
     <t>0%</t>
@@ -91,7 +91,7 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>4,1%</t>
+    <t>4,54%</t>
   </si>
   <si>
     <t>No</t>
@@ -100,7 +100,7 @@
     <t>97,92%</t>
   </si>
   <si>
-    <t>92,39%</t>
+    <t>92,83%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -115,7 +115,7 @@
     <t>98,73%</t>
   </si>
   <si>
-    <t>95,9%</t>
+    <t>95,46%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -124,7 +124,7 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,1%</t>
+    <t>2,73%</t>
   </si>
   <si>
     <t>1,62%</t>
@@ -133,13 +133,13 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,7%</t>
+    <t>1,68%</t>
   </si>
   <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>96,9%</t>
+    <t>97,27%</t>
   </si>
   <si>
     <t>98,38%</t>
@@ -148,7 +148,7 @@
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,3%</t>
+    <t>98,32%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -178,43 +178,43 @@
     <t>1,17%</t>
   </si>
   <si>
-    <t>4,7%</t>
+    <t>4,11%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>9,87%</t>
+    <t>9,96%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>95,3%</t>
+    <t>95,89%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>90,13%</t>
+    <t>90,04%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -223,676 +223,688 @@
     <t>4,5%</t>
   </si>
   <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2016 (Tasa respuesta: 45,97%)</t>
+  </si>
+  <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>98,48%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>97,68%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
+    <t>95,33%</t>
   </si>
   <si>
     <t>99,01%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2015 (Tasa respuesta: 45,97%)</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21ECB2C-5404-443D-9E5E-C59788AED909}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D301DF-589F-48A0-8CB9-B7A8E509F94A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1941,7 +1953,7 @@
         <v>168</v>
       </c>
       <c r="D14" s="7">
-        <v>168498</v>
+        <v>168497</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>52</v>
@@ -1992,7 +2004,7 @@
         <v>170</v>
       </c>
       <c r="D15" s="7">
-        <v>170488</v>
+        <v>170487</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -2534,7 +2546,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2543,13 +2555,13 @@
         <v>5801</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,13 +2576,13 @@
         <v>313659</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>177</v>
@@ -2579,10 +2591,10 @@
         <v>184386</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>21</v>
@@ -2594,13 +2606,13 @@
         <v>498044</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,10 +2683,10 @@
         <v>96</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -2686,10 +2698,10 @@
         <v>109</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -2698,10 +2710,10 @@
         <v>19706</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>114</v>
@@ -2719,7 +2731,7 @@
         <v>1370598</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>115</v>
@@ -2734,13 +2746,13 @@
         <v>858307</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>2177</v>
@@ -2749,13 +2761,13 @@
         <v>2228906</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,7 +2823,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2835,7 +2847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A696D9-AA1B-440A-9E6F-7C02946B3155}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F237F81E-E50C-45A4-A86B-FE81F55651E0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2852,7 +2864,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2957,39 +2969,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,39 +3014,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,39 +3059,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3108,13 @@
         <v>1928</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3111,13 +3123,13 @@
         <v>1005</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3126,13 +3138,13 @@
         <v>2933</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,10 +3159,10 @@
         <v>206177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
@@ -3162,7 +3174,7 @@
         <v>150213</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>134</v>
@@ -3439,10 +3451,10 @@
         <v>153</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3469,13 @@
         <v>251906</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H14" s="7">
         <v>180</v>
@@ -3472,10 +3484,10 @@
         <v>197894</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -3487,13 +3499,13 @@
         <v>449801</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3573,13 @@
         <v>940</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3591,13 +3603,13 @@
         <v>940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,10 +3624,10 @@
         <v>90459</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
@@ -3642,10 +3654,10 @@
         <v>155899</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -3722,7 +3734,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3752,7 +3764,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,7 +3782,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>23</v>
@@ -3800,7 +3812,7 @@
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>23</v>
@@ -3871,13 +3883,13 @@
         <v>5538</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3892,7 +3904,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3904,10 +3916,10 @@
         <v>45</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,13 +3934,13 @@
         <v>274656</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>177</v>
@@ -3940,7 +3952,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>23</v>
@@ -3955,10 +3967,10 @@
         <v>52</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4038,13 @@
         <v>6061</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4047,7 +4059,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4059,10 +4071,10 @@
         <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,13 +4089,13 @@
         <v>290093</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H26" s="7">
         <v>190</v>
@@ -4095,7 +4107,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>23</v>
@@ -4107,13 +4119,13 @@
         <v>498929</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4193,13 @@
         <v>30027</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -4196,13 +4208,13 @@
         <v>3872</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -4211,13 +4223,13 @@
         <v>33898</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,10 +4247,10 @@
         <v>136</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>891</v>
@@ -4247,13 +4259,13 @@
         <v>969317</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>2131</v>
@@ -4262,13 +4274,13 @@
         <v>2293386</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,7 +4336,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4348,7 +4360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35221713-A924-4F89-9301-CA0ED8249CFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AAAF7C-0A47-4151-80FF-46C8270FADAF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4365,7 +4377,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4478,7 +4490,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4493,7 +4505,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4508,7 +4520,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,7 +4538,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -4541,7 +4553,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -4550,13 +4562,13 @@
         <v>295</v>
       </c>
       <c r="N5" s="7">
-        <v>313677</v>
+        <v>313678</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -4601,7 +4613,7 @@
         <v>295</v>
       </c>
       <c r="N6" s="7">
-        <v>313677</v>
+        <v>313678</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -4627,13 +4639,13 @@
         <v>9635</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4642,13 +4654,13 @@
         <v>1969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -4657,13 +4669,13 @@
         <v>11604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4690,13 @@
         <v>284274</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="H8" s="7">
         <v>168</v>
@@ -4693,10 +4705,10 @@
         <v>176928</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
@@ -4708,13 +4720,13 @@
         <v>461202</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4794,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4803,7 +4815,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4812,13 +4824,13 @@
         <v>865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,10 +4845,10 @@
         <v>164563</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -4851,7 +4863,7 @@
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
@@ -4863,10 +4875,10 @@
         <v>276387</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -4937,13 +4949,13 @@
         <v>932</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4952,13 +4964,13 @@
         <v>881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4973,7 +4985,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,10 +5000,10 @@
         <v>237146</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -5003,10 +5015,10 @@
         <v>158582</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
@@ -5021,7 +5033,7 @@
         <v>146</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -5098,7 +5110,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5113,7 +5125,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5128,7 +5140,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,7 +5158,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -5161,7 +5173,7 @@
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>23</v>
@@ -5176,7 +5188,7 @@
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>23</v>
@@ -5247,13 +5259,13 @@
         <v>2916</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5262,13 +5274,13 @@
         <v>873</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5277,13 +5289,13 @@
         <v>3789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5310,13 @@
         <v>135666</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>254</v>
       </c>
       <c r="H20" s="7">
         <v>86</v>
@@ -5313,10 +5325,10 @@
         <v>88064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
@@ -5328,13 +5340,13 @@
         <v>223730</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5414,13 @@
         <v>7560</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5417,13 +5429,13 @@
         <v>1006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -5432,13 +5444,13 @@
         <v>8566</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>15</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5465,13 @@
         <v>317969</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>264</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="H23" s="7">
         <v>245</v>
@@ -5468,10 +5480,10 @@
         <v>257012</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>21</v>
@@ -5483,13 +5495,13 @@
         <v>574981</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5569,13 @@
         <v>2145</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5578,7 +5590,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5587,13 +5599,13 @@
         <v>2145</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>84</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,10 +5620,10 @@
         <v>390933</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>21</v>
@@ -5626,7 +5638,7 @@
         <v>21</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>23</v>
@@ -5638,10 +5650,10 @@
         <v>691762</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>21</v>
@@ -5712,13 +5724,13 @@
         <v>24052</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -5727,13 +5739,13 @@
         <v>4729</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -5742,13 +5754,13 @@
         <v>28781</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>281</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5775,13 @@
         <v>1845636</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H29" s="7">
         <v>1249</v>
@@ -5778,13 +5790,13 @@
         <v>1300101</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M29" s="7">
         <v>2992</v>
@@ -5793,13 +5805,13 @@
         <v>3145737</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,7 +5867,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2405-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2405-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E66D792B-037B-45A2-8A73-518097F259EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{021EA037-7A7D-496C-8FC4-9FB7E2137C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27F66FC2-1336-451C-B653-67C572D8C59F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B11D21F6-1C18-4276-9E28-CC4C5312AE5E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="289">
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2007 (Tasa respuesta: 33,7%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="243">
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -70,841 +70,703 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>2,08%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,17%</t>
+    <t>3,12%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>97,23%</t>
+    <t>99,22%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
   </si>
   <si>
     <t>Cadiz</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>Granada</t>
+    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2016 (Tasa respuesta: 99,7%)</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>0,24%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado marihuana o hachís sin mezclar con tabaco en 2016 (Tasa respuesta: 45,97%)</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
+    <t>99,39%</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D301DF-589F-48A0-8CB9-B7A8E509F94A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEA3A7B-E6F1-443D-80E5-9F569B150F8B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1485,10 +1347,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="D5" s="7">
-        <v>111000</v>
+        <v>270652</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1500,10 +1362,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>68</v>
+        <v>245</v>
       </c>
       <c r="I5" s="7">
-        <v>72312</v>
+        <v>260838</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
@@ -1515,10 +1377,10 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>176</v>
+        <v>514</v>
       </c>
       <c r="N5" s="7">
-        <v>183311</v>
+        <v>531490</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1536,10 +1398,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="D6" s="7">
-        <v>113358</v>
+        <v>273010</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -1551,10 +1413,10 @@
         <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>68</v>
+        <v>245</v>
       </c>
       <c r="I6" s="7">
-        <v>72312</v>
+        <v>260838</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>23</v>
@@ -1566,10 +1428,10 @@
         <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>178</v>
+        <v>516</v>
       </c>
       <c r="N6" s="7">
-        <v>185669</v>
+        <v>533848</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -1640,10 +1502,10 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>178</v>
+        <v>463</v>
       </c>
       <c r="D8" s="7">
-        <v>190445</v>
+        <v>490992</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>32</v>
@@ -1655,10 +1517,10 @@
         <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>117</v>
+        <v>499</v>
       </c>
       <c r="I8" s="7">
-        <v>118656</v>
+        <v>503949</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>21</v>
@@ -1670,10 +1532,10 @@
         <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>295</v>
+        <v>962</v>
       </c>
       <c r="N8" s="7">
-        <v>309102</v>
+        <v>994941</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>35</v>
@@ -1691,10 +1553,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>179</v>
+        <v>464</v>
       </c>
       <c r="D9" s="7">
-        <v>191486</v>
+        <v>492033</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -1706,10 +1568,10 @@
         <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>117</v>
+        <v>499</v>
       </c>
       <c r="I9" s="7">
-        <v>118656</v>
+        <v>503949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -1721,10 +1583,10 @@
         <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>296</v>
+        <v>963</v>
       </c>
       <c r="N9" s="7">
-        <v>310143</v>
+        <v>995982</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -1795,10 +1657,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="D11" s="7">
-        <v>147839</v>
+        <v>318846</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
@@ -1810,10 +1672,10 @@
         <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>95</v>
+        <v>335</v>
       </c>
       <c r="I11" s="7">
-        <v>94889</v>
+        <v>335412</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>21</v>
@@ -1825,10 +1687,10 @@
         <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>238</v>
+        <v>645</v>
       </c>
       <c r="N11" s="7">
-        <v>242728</v>
+        <v>654258</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>21</v>
@@ -1846,10 +1708,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="D12" s="7">
-        <v>147839</v>
+        <v>318846</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -1861,10 +1723,10 @@
         <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>95</v>
+        <v>335</v>
       </c>
       <c r="I12" s="7">
-        <v>94889</v>
+        <v>335412</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -1876,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>238</v>
+        <v>645</v>
       </c>
       <c r="N12" s="7">
-        <v>242728</v>
+        <v>654258</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -1938,10 +1800,10 @@
         <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1950,49 +1812,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>168</v>
+        <v>360</v>
       </c>
       <c r="D14" s="7">
-        <v>168497</v>
+        <v>356681</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>105</v>
+        <v>382</v>
       </c>
       <c r="I14" s="7">
-        <v>102179</v>
+        <v>368416</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>273</v>
+        <v>742</v>
       </c>
       <c r="N14" s="7">
-        <v>270676</v>
+        <v>725097</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,10 +1863,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>170</v>
+        <v>362</v>
       </c>
       <c r="D15" s="7">
-        <v>170487</v>
+        <v>358671</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -2016,10 +1878,10 @@
         <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>107</v>
+        <v>384</v>
       </c>
       <c r="I15" s="7">
-        <v>105219</v>
+        <v>371456</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -2031,10 +1893,10 @@
         <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>277</v>
+        <v>746</v>
       </c>
       <c r="N15" s="7">
-        <v>275706</v>
+        <v>730127</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -2048,7 +1910,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2060,13 +1922,13 @@
         <v>3793</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2081,7 +1943,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2090,13 +1952,13 @@
         <v>3793</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,49 +1967,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>83</v>
+        <v>203</v>
       </c>
       <c r="D17" s="7">
-        <v>80536</v>
+        <v>199515</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="H17" s="7">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="I17" s="7">
-        <v>59526</v>
+        <v>207668</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="7">
+        <v>401</v>
+      </c>
+      <c r="N17" s="7">
+        <v>407183</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="7">
-        <v>140</v>
-      </c>
-      <c r="N17" s="7">
-        <v>140062</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,10 +2018,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="D18" s="7">
-        <v>84329</v>
+        <v>203308</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -2171,10 +2033,10 @@
         <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="I18" s="7">
-        <v>59526</v>
+        <v>207668</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -2186,10 +2048,10 @@
         <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>143</v>
+        <v>404</v>
       </c>
       <c r="N18" s="7">
-        <v>143855</v>
+        <v>410976</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -2203,7 +2065,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2221,7 +2083,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2236,7 +2098,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -2251,7 +2113,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,46 +2122,46 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>124</v>
+        <v>266</v>
       </c>
       <c r="D20" s="7">
-        <v>125328</v>
+        <v>270811</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="7">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="I20" s="7">
-        <v>65007</v>
+        <v>278144</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M20" s="7">
-        <v>188</v>
+        <v>536</v>
       </c>
       <c r="N20" s="7">
-        <v>190335</v>
+        <v>548955</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>23</v>
@@ -2311,10 +2173,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>124</v>
+        <v>266</v>
       </c>
       <c r="D21" s="7">
-        <v>125328</v>
+        <v>270811</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -2326,10 +2188,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="I21" s="7">
-        <v>65007</v>
+        <v>278144</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -2341,10 +2203,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>188</v>
+        <v>536</v>
       </c>
       <c r="N21" s="7">
-        <v>190335</v>
+        <v>548955</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -2358,7 +2220,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2370,13 +2232,13 @@
         <v>1683</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2391,7 +2253,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2400,13 +2262,13 @@
         <v>1683</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,46 +2277,46 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>229</v>
+        <v>597</v>
       </c>
       <c r="D23" s="7">
-        <v>233293</v>
+        <v>613344</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="7">
-        <v>158</v>
+        <v>621</v>
       </c>
       <c r="I23" s="7">
-        <v>161353</v>
+        <v>638219</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1218</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1251563</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" s="7">
-        <v>387</v>
-      </c>
-      <c r="N23" s="7">
-        <v>394646</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>21</v>
@@ -2466,10 +2328,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>230</v>
+        <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>234976</v>
+        <v>615027</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
@@ -2481,10 +2343,10 @@
         <v>23</v>
       </c>
       <c r="H24" s="7">
-        <v>158</v>
+        <v>621</v>
       </c>
       <c r="I24" s="7">
-        <v>161353</v>
+        <v>638219</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>23</v>
@@ -2496,10 +2358,10 @@
         <v>23</v>
       </c>
       <c r="M24" s="7">
-        <v>388</v>
+        <v>1219</v>
       </c>
       <c r="N24" s="7">
-        <v>396329</v>
+        <v>1253246</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -2513,7 +2375,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2525,13 +2387,13 @@
         <v>3819</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2540,13 +2402,13 @@
         <v>1982</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2555,13 +2417,13 @@
         <v>5801</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,49 +2432,49 @@
         <v>18</v>
       </c>
       <c r="C26" s="7">
-        <v>303</v>
+        <v>732</v>
       </c>
       <c r="D26" s="7">
-        <v>313659</v>
+        <v>739976</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="7">
+        <v>743</v>
+      </c>
+      <c r="I26" s="7">
+        <v>781529</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="7">
-        <v>177</v>
-      </c>
-      <c r="I26" s="7">
-        <v>184386</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M26" s="7">
-        <v>480</v>
+        <v>1475</v>
       </c>
       <c r="N26" s="7">
-        <v>498044</v>
+        <v>1521505</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,10 +2483,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>307</v>
+        <v>736</v>
       </c>
       <c r="D27" s="7">
-        <v>317478</v>
+        <v>743795</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>23</v>
@@ -2636,10 +2498,10 @@
         <v>23</v>
       </c>
       <c r="H27" s="7">
-        <v>179</v>
+        <v>745</v>
       </c>
       <c r="I27" s="7">
-        <v>186368</v>
+        <v>783511</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>23</v>
@@ -2651,10 +2513,10 @@
         <v>23</v>
       </c>
       <c r="M27" s="7">
-        <v>486</v>
+        <v>1481</v>
       </c>
       <c r="N27" s="7">
-        <v>503845</v>
+        <v>1527306</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>23</v>
@@ -2680,13 +2542,13 @@
         <v>14683</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -2695,13 +2557,13 @@
         <v>5023</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -2710,13 +2572,13 @@
         <v>19706</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,49 +2587,49 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>1336</v>
+        <v>3200</v>
       </c>
       <c r="D29" s="7">
-        <v>1370598</v>
+        <v>3260818</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3293</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3374175</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H29" s="7">
-        <v>841</v>
-      </c>
-      <c r="I29" s="7">
-        <v>858307</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>6493</v>
+      </c>
+      <c r="N29" s="7">
+        <v>6634992</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2177</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2228906</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,10 +2638,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>1349</v>
+        <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>1385281</v>
+        <v>3275501</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>23</v>
@@ -2791,10 +2653,10 @@
         <v>23</v>
       </c>
       <c r="H30" s="7">
-        <v>845</v>
+        <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>863330</v>
+        <v>3379198</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>23</v>
@@ -2806,10 +2668,10 @@
         <v>23</v>
       </c>
       <c r="M30" s="7">
-        <v>2194</v>
+        <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>2248612</v>
+        <v>6654698</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>23</v>
@@ -2823,7 +2685,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2847,7 +2709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F237F81E-E50C-45A4-A86B-FE81F55651E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44885D2A-BE76-4E9D-A409-82525BA90631}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2864,7 +2726,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2969,39 +2831,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,39 +2876,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,39 +2921,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +2970,13 @@
         <v>1928</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3123,13 +2985,13 @@
         <v>1005</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3138,13 +3000,13 @@
         <v>2933</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,49 +3015,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>189</v>
+        <v>470</v>
       </c>
       <c r="D8" s="7">
-        <v>206177</v>
+        <v>503599</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>137</v>
+        <v>479</v>
       </c>
       <c r="I8" s="7">
-        <v>150213</v>
+        <v>522760</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>326</v>
+        <v>949</v>
       </c>
       <c r="N8" s="7">
-        <v>356390</v>
+        <v>1026359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,10 +3066,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>191</v>
+        <v>472</v>
       </c>
       <c r="D9" s="7">
-        <v>208105</v>
+        <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -3219,10 +3081,10 @@
         <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>138</v>
+        <v>480</v>
       </c>
       <c r="I9" s="7">
-        <v>151218</v>
+        <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -3234,10 +3096,10 @@
         <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>329</v>
+        <v>952</v>
       </c>
       <c r="N9" s="7">
-        <v>359323</v>
+        <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -3269,7 +3131,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3278,13 +3140,13 @@
         <v>986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3293,13 +3155,13 @@
         <v>986</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,46 +3170,46 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>127037</v>
+        <v>324046</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="7">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="I11" s="7">
-        <v>86447</v>
+        <v>339048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>205</v>
+        <v>634</v>
       </c>
       <c r="N11" s="7">
-        <v>213485</v>
+        <v>663094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -3359,10 +3221,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="D12" s="7">
-        <v>127037</v>
+        <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -3374,10 +3236,10 @@
         <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="I12" s="7">
-        <v>87433</v>
+        <v>340034</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -3389,10 +3251,10 @@
         <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>206</v>
+        <v>635</v>
       </c>
       <c r="N12" s="7">
-        <v>214471</v>
+        <v>664080</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -3418,13 +3280,13 @@
         <v>15560</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3433,13 +3295,13 @@
         <v>1881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3448,13 +3310,13 @@
         <v>17440</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3463,49 +3325,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>611</v>
       </c>
       <c r="D14" s="7">
-        <v>251906</v>
+        <v>652219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
-        <v>180</v>
+        <v>623</v>
       </c>
       <c r="I14" s="7">
-        <v>197894</v>
+        <v>672176</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>415</v>
+        <v>1234</v>
       </c>
       <c r="N14" s="7">
-        <v>449801</v>
+        <v>1324396</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,10 +3376,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>249</v>
+        <v>625</v>
       </c>
       <c r="D15" s="7">
-        <v>267466</v>
+        <v>667779</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -3529,10 +3391,10 @@
         <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>182</v>
+        <v>625</v>
       </c>
       <c r="I15" s="7">
-        <v>199775</v>
+        <v>674057</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -3544,10 +3406,10 @@
         <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>431</v>
+        <v>1250</v>
       </c>
       <c r="N15" s="7">
-        <v>467241</v>
+        <v>1341836</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -3561,7 +3423,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3573,13 +3435,13 @@
         <v>940</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3594,7 +3456,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3603,13 +3465,13 @@
         <v>940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,46 +3480,46 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="D17" s="7">
-        <v>90459</v>
+        <v>211678</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="I17" s="7">
-        <v>65439</v>
+        <v>219591</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M17" s="7">
-        <v>147</v>
+        <v>407</v>
       </c>
       <c r="N17" s="7">
-        <v>155899</v>
+        <v>431269</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>21</v>
@@ -3669,10 +3531,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="D18" s="7">
-        <v>91399</v>
+        <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -3684,10 +3546,10 @@
         <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="I18" s="7">
-        <v>65439</v>
+        <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -3699,10 +3561,10 @@
         <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>148</v>
+        <v>408</v>
       </c>
       <c r="N18" s="7">
-        <v>156839</v>
+        <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -3716,7 +3578,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3734,7 +3596,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3749,7 +3611,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3764,7 +3626,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,46 +3635,46 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="D20" s="7">
-        <v>83740</v>
+        <v>273981</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="7">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="I20" s="7">
-        <v>66879</v>
+        <v>280031</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M20" s="7">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="N20" s="7">
-        <v>150619</v>
+        <v>554012</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>23</v>
@@ -3824,10 +3686,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="D21" s="7">
-        <v>83740</v>
+        <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -3839,10 +3701,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="I21" s="7">
-        <v>66879</v>
+        <v>280031</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -3854,10 +3716,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="N21" s="7">
-        <v>150619</v>
+        <v>554012</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -3871,7 +3733,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3883,13 +3745,13 @@
         <v>5538</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3904,7 +3766,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -3913,13 +3775,13 @@
         <v>5538</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,49 +3790,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>257</v>
+        <v>612</v>
       </c>
       <c r="D23" s="7">
-        <v>274656</v>
+        <v>657250</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="H23" s="7">
-        <v>177</v>
+        <v>635</v>
       </c>
       <c r="I23" s="7">
-        <v>193608</v>
+        <v>692911</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M23" s="7">
-        <v>434</v>
+        <v>1247</v>
       </c>
       <c r="N23" s="7">
-        <v>468264</v>
+        <v>1350161</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,10 +3841,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>263</v>
+        <v>618</v>
       </c>
       <c r="D24" s="7">
-        <v>280194</v>
+        <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
@@ -3994,10 +3856,10 @@
         <v>23</v>
       </c>
       <c r="H24" s="7">
-        <v>177</v>
+        <v>635</v>
       </c>
       <c r="I24" s="7">
-        <v>193608</v>
+        <v>692911</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>23</v>
@@ -4009,10 +3871,10 @@
         <v>23</v>
       </c>
       <c r="M24" s="7">
-        <v>440</v>
+        <v>1253</v>
       </c>
       <c r="N24" s="7">
-        <v>473802</v>
+        <v>1355699</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -4026,7 +3888,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4038,13 +3900,13 @@
         <v>6061</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4059,7 +3921,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4068,13 +3930,13 @@
         <v>6061</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,49 +3945,49 @@
         <v>18</v>
       </c>
       <c r="C26" s="7">
-        <v>268</v>
+        <v>710</v>
       </c>
       <c r="D26" s="7">
-        <v>290093</v>
+        <v>772008</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="H26" s="7">
-        <v>190</v>
+        <v>756</v>
       </c>
       <c r="I26" s="7">
-        <v>208836</v>
+        <v>822857</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M26" s="7">
-        <v>458</v>
+        <v>1466</v>
       </c>
       <c r="N26" s="7">
-        <v>498929</v>
+        <v>1594865</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,10 +3996,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>274</v>
+        <v>716</v>
       </c>
       <c r="D27" s="7">
-        <v>296154</v>
+        <v>778069</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>23</v>
@@ -4149,10 +4011,10 @@
         <v>23</v>
       </c>
       <c r="H27" s="7">
-        <v>190</v>
+        <v>756</v>
       </c>
       <c r="I27" s="7">
-        <v>208836</v>
+        <v>822857</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>23</v>
@@ -4164,10 +4026,10 @@
         <v>23</v>
       </c>
       <c r="M27" s="7">
-        <v>464</v>
+        <v>1472</v>
       </c>
       <c r="N27" s="7">
-        <v>504990</v>
+        <v>1600926</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>23</v>
@@ -4193,13 +4055,13 @@
         <v>30027</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -4208,13 +4070,13 @@
         <v>3872</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -4223,13 +4085,13 @@
         <v>33898</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,49 +4100,49 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>1240</v>
+        <v>3178</v>
       </c>
       <c r="D29" s="7">
-        <v>1324069</v>
+        <v>3394781</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
-        <v>891</v>
+        <v>3289</v>
       </c>
       <c r="I29" s="7">
-        <v>969317</v>
+        <v>3549374</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
-        <v>2131</v>
+        <v>6467</v>
       </c>
       <c r="N29" s="7">
-        <v>2293386</v>
+        <v>6944156</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,10 +4151,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>1269</v>
+        <v>3207</v>
       </c>
       <c r="D30" s="7">
-        <v>1354096</v>
+        <v>3424808</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>23</v>
@@ -4304,10 +4166,10 @@
         <v>23</v>
       </c>
       <c r="H30" s="7">
-        <v>895</v>
+        <v>3293</v>
       </c>
       <c r="I30" s="7">
-        <v>973189</v>
+        <v>3553246</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>23</v>
@@ -4319,10 +4181,10 @@
         <v>23</v>
       </c>
       <c r="M30" s="7">
-        <v>2164</v>
+        <v>6500</v>
       </c>
       <c r="N30" s="7">
-        <v>2327284</v>
+        <v>6978054</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>23</v>
@@ -4336,7 +4198,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4360,7 +4222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AAAF7C-0A47-4151-80FF-46C8270FADAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1E1586-1FF9-4839-9D65-0B36797190DC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4377,7 +4239,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4490,7 +4352,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4505,7 +4367,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4520,7 +4382,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,46 +4391,46 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="D5" s="7">
-        <v>185138</v>
+        <v>291823</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>125</v>
+        <v>277</v>
       </c>
       <c r="I5" s="7">
-        <v>128539</v>
+        <v>288703</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>295</v>
+        <v>541</v>
       </c>
       <c r="N5" s="7">
-        <v>313678</v>
+        <v>580526</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -4580,10 +4442,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="D6" s="7">
-        <v>185138</v>
+        <v>291823</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -4595,10 +4457,10 @@
         <v>23</v>
       </c>
       <c r="H6" s="7">
-        <v>125</v>
+        <v>277</v>
       </c>
       <c r="I6" s="7">
-        <v>128539</v>
+        <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>23</v>
@@ -4610,10 +4472,10 @@
         <v>23</v>
       </c>
       <c r="M6" s="7">
-        <v>295</v>
+        <v>541</v>
       </c>
       <c r="N6" s="7">
-        <v>313678</v>
+        <v>580526</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -4639,13 +4501,13 @@
         <v>9635</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4654,13 +4516,13 @@
         <v>1969</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -4669,13 +4531,13 @@
         <v>11604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,49 +4546,49 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>269</v>
+        <v>465</v>
       </c>
       <c r="D8" s="7">
-        <v>284274</v>
+        <v>492076</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="H8" s="7">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="I8" s="7">
-        <v>176928</v>
+        <v>517932</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>437</v>
+        <v>944</v>
       </c>
       <c r="N8" s="7">
-        <v>461202</v>
+        <v>1010008</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,10 +4597,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>278</v>
+        <v>474</v>
       </c>
       <c r="D9" s="7">
-        <v>293909</v>
+        <v>501711</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>23</v>
@@ -4750,10 +4612,10 @@
         <v>23</v>
       </c>
       <c r="H9" s="7">
-        <v>170</v>
+        <v>481</v>
       </c>
       <c r="I9" s="7">
-        <v>178897</v>
+        <v>519901</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>23</v>
@@ -4765,10 +4627,10 @@
         <v>23</v>
       </c>
       <c r="M9" s="7">
-        <v>448</v>
+        <v>955</v>
       </c>
       <c r="N9" s="7">
-        <v>472806</v>
+        <v>1021612</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>23</v>
@@ -4794,13 +4656,13 @@
         <v>865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4815,7 +4677,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -4824,13 +4686,13 @@
         <v>865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4839,46 +4701,46 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>173</v>
+        <v>333</v>
       </c>
       <c r="D11" s="7">
-        <v>164563</v>
+        <v>316835</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>115</v>
+        <v>332</v>
       </c>
       <c r="I11" s="7">
-        <v>111824</v>
+        <v>336309</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="7">
-        <v>288</v>
+        <v>665</v>
       </c>
       <c r="N11" s="7">
-        <v>276387</v>
+        <v>653144</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -4890,10 +4752,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>174</v>
+        <v>334</v>
       </c>
       <c r="D12" s="7">
-        <v>165428</v>
+        <v>317700</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
@@ -4905,10 +4767,10 @@
         <v>23</v>
       </c>
       <c r="H12" s="7">
-        <v>115</v>
+        <v>332</v>
       </c>
       <c r="I12" s="7">
-        <v>111824</v>
+        <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>23</v>
@@ -4920,10 +4782,10 @@
         <v>23</v>
       </c>
       <c r="M12" s="7">
-        <v>289</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>277252</v>
+        <v>654009</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -4949,13 +4811,13 @@
         <v>932</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -4964,13 +4826,13 @@
         <v>881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -4979,13 +4841,13 @@
         <v>1813</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,46 +4856,46 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>227</v>
+        <v>353</v>
       </c>
       <c r="D14" s="7">
-        <v>237146</v>
+        <v>369032</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>149</v>
+        <v>356</v>
       </c>
       <c r="I14" s="7">
-        <v>158582</v>
+        <v>385117</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>376</v>
+        <v>709</v>
       </c>
       <c r="N14" s="7">
-        <v>395728</v>
+        <v>754149</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>21</v>
@@ -5045,10 +4907,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="D15" s="7">
-        <v>238078</v>
+        <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -5060,10 +4922,10 @@
         <v>23</v>
       </c>
       <c r="H15" s="7">
-        <v>150</v>
+        <v>357</v>
       </c>
       <c r="I15" s="7">
-        <v>159463</v>
+        <v>385998</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>23</v>
@@ -5075,10 +4937,10 @@
         <v>23</v>
       </c>
       <c r="M15" s="7">
-        <v>378</v>
+        <v>711</v>
       </c>
       <c r="N15" s="7">
-        <v>397541</v>
+        <v>755962</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>23</v>
@@ -5092,7 +4954,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5110,7 +4972,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5125,7 +4987,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5140,7 +5002,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,46 +5011,46 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="D17" s="7">
-        <v>129946</v>
+        <v>211221</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="7">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="I17" s="7">
-        <v>78322</v>
+        <v>218587</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M17" s="7">
-        <v>210</v>
+        <v>435</v>
       </c>
       <c r="N17" s="7">
-        <v>208268</v>
+        <v>429808</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>23</v>
@@ -5200,10 +5062,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="D18" s="7">
-        <v>129946</v>
+        <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
@@ -5215,10 +5077,10 @@
         <v>23</v>
       </c>
       <c r="H18" s="7">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="I18" s="7">
-        <v>78322</v>
+        <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>23</v>
@@ -5230,10 +5092,10 @@
         <v>23</v>
       </c>
       <c r="M18" s="7">
-        <v>210</v>
+        <v>435</v>
       </c>
       <c r="N18" s="7">
-        <v>208268</v>
+        <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>23</v>
@@ -5247,7 +5109,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5259,13 +5121,13 @@
         <v>2916</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5274,13 +5136,13 @@
         <v>873</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5289,13 +5151,13 @@
         <v>3789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,49 +5166,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="D20" s="7">
-        <v>135666</v>
+        <v>259169</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="H20" s="7">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="I20" s="7">
-        <v>88064</v>
+        <v>271321</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M20" s="7">
-        <v>219</v>
+        <v>516</v>
       </c>
       <c r="N20" s="7">
-        <v>223730</v>
+        <v>530491</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,10 +5217,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>138582</v>
+        <v>262085</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>23</v>
@@ -5370,10 +5232,10 @@
         <v>23</v>
       </c>
       <c r="H21" s="7">
-        <v>87</v>
+        <v>262</v>
       </c>
       <c r="I21" s="7">
-        <v>88937</v>
+        <v>272194</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>23</v>
@@ -5385,10 +5247,10 @@
         <v>23</v>
       </c>
       <c r="M21" s="7">
-        <v>223</v>
+        <v>520</v>
       </c>
       <c r="N21" s="7">
-        <v>227519</v>
+        <v>534280</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>23</v>
@@ -5402,7 +5264,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5414,13 +5276,13 @@
         <v>7560</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5429,13 +5291,13 @@
         <v>1006</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>262</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -5444,13 +5306,13 @@
         <v>8566</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,49 +5321,49 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>274</v>
+        <v>569</v>
       </c>
       <c r="D23" s="7">
-        <v>317969</v>
+        <v>644682</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="H23" s="7">
-        <v>245</v>
+        <v>641</v>
       </c>
       <c r="I23" s="7">
-        <v>257012</v>
+        <v>685910</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="M23" s="7">
-        <v>519</v>
+        <v>1210</v>
       </c>
       <c r="N23" s="7">
-        <v>574981</v>
+        <v>1330592</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,10 +5372,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>281</v>
+        <v>576</v>
       </c>
       <c r="D24" s="7">
-        <v>325529</v>
+        <v>652242</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
@@ -5525,10 +5387,10 @@
         <v>23</v>
       </c>
       <c r="H24" s="7">
-        <v>246</v>
+        <v>642</v>
       </c>
       <c r="I24" s="7">
-        <v>258018</v>
+        <v>686916</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>23</v>
@@ -5540,10 +5402,10 @@
         <v>23</v>
       </c>
       <c r="M24" s="7">
-        <v>527</v>
+        <v>1218</v>
       </c>
       <c r="N24" s="7">
-        <v>583547</v>
+        <v>1339158</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>23</v>
@@ -5557,7 +5419,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5569,13 +5431,13 @@
         <v>2145</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>234</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>269</v>
+        <v>124</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5590,7 +5452,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>270</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5599,13 +5461,13 @@
         <v>2145</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>271</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,46 +5476,46 @@
         <v>18</v>
       </c>
       <c r="C26" s="7">
-        <v>369</v>
+        <v>746</v>
       </c>
       <c r="D26" s="7">
-        <v>390933</v>
+        <v>773792</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>272</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="7">
-        <v>279</v>
+        <v>755</v>
       </c>
       <c r="I26" s="7">
-        <v>300829</v>
+        <v>826167</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>273</v>
+        <v>100</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="M26" s="7">
-        <v>648</v>
+        <v>1501</v>
       </c>
       <c r="N26" s="7">
-        <v>691762</v>
+        <v>1599959</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>274</v>
+        <v>117</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>21</v>
@@ -5665,10 +5527,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>371</v>
+        <v>748</v>
       </c>
       <c r="D27" s="7">
-        <v>393078</v>
+        <v>775937</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>23</v>
@@ -5680,10 +5542,10 @@
         <v>23</v>
       </c>
       <c r="H27" s="7">
-        <v>279</v>
+        <v>755</v>
       </c>
       <c r="I27" s="7">
-        <v>300829</v>
+        <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>23</v>
@@ -5695,10 +5557,10 @@
         <v>23</v>
       </c>
       <c r="M27" s="7">
-        <v>650</v>
+        <v>1503</v>
       </c>
       <c r="N27" s="7">
-        <v>693907</v>
+        <v>1602104</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>23</v>
@@ -5724,13 +5586,13 @@
         <v>24052</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>275</v>
+        <v>74</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>276</v>
+        <v>59</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -5739,13 +5601,13 @@
         <v>4729</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -5754,13 +5616,13 @@
         <v>28781</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>281</v>
+        <v>125</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,49 +5631,49 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>1743</v>
+        <v>3197</v>
       </c>
       <c r="D29" s="7">
-        <v>1845636</v>
+        <v>3358631</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>284</v>
+        <v>67</v>
       </c>
       <c r="H29" s="7">
-        <v>1249</v>
+        <v>3324</v>
       </c>
       <c r="I29" s="7">
-        <v>1300101</v>
+        <v>3530047</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>285</v>
+        <v>88</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>286</v>
+        <v>138</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="M29" s="7">
-        <v>2992</v>
+        <v>6521</v>
       </c>
       <c r="N29" s="7">
-        <v>3145737</v>
+        <v>6888678</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>288</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,10 +5682,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>1766</v>
+        <v>3220</v>
       </c>
       <c r="D30" s="7">
-        <v>1869688</v>
+        <v>3382683</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>23</v>
@@ -5835,10 +5697,10 @@
         <v>23</v>
       </c>
       <c r="H30" s="7">
-        <v>1254</v>
+        <v>3329</v>
       </c>
       <c r="I30" s="7">
-        <v>1304830</v>
+        <v>3534776</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>23</v>
@@ -5850,10 +5712,10 @@
         <v>23</v>
       </c>
       <c r="M30" s="7">
-        <v>3020</v>
+        <v>6549</v>
       </c>
       <c r="N30" s="7">
-        <v>3174518</v>
+        <v>6917459</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>23</v>
@@ -5867,7 +5729,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
